--- a/hardware/outputs/board_bom/board_bom.xlsx
+++ b/hardware/outputs/board_bom/board_bom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="405">
   <si>
     <t>Comment</t>
   </si>
@@ -405,580 +405,586 @@
     <t>GRM31CR71E106KA12L</t>
   </si>
   <si>
+    <t>47k, DNP</t>
+  </si>
+  <si>
+    <t>RES 47k OHM 1/10W 1% 0805</t>
+  </si>
+  <si>
+    <t>V1, V2, V3, V4</t>
+  </si>
+  <si>
+    <t>RC0805FR-0747KL</t>
+  </si>
+  <si>
+    <t>150R</t>
+  </si>
+  <si>
+    <t>RES 150R OHM 1/10W 1% 0603</t>
+  </si>
+  <si>
+    <t>R33, R42, R44, R92</t>
+  </si>
+  <si>
+    <t>CRCW0603150RFKEA</t>
+  </si>
+  <si>
+    <t>220uF/6.3V</t>
+  </si>
+  <si>
+    <t>CAP Tantalum 220uF 6.3V 20% 1210</t>
+  </si>
+  <si>
+    <t>C24, C31, C49, C56</t>
+  </si>
+  <si>
+    <t>6TPE220MAZB</t>
+  </si>
+  <si>
+    <t>cc1210</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>MOSFET-P-SI4403CDY-T1-GE3</t>
+  </si>
+  <si>
+    <t>MOSFET 1.8V P-Channel 20 V, 0.0155 Ω typ., 13.4 A</t>
+  </si>
+  <si>
+    <t>Q3, Q4, Q5, Q6</t>
+  </si>
+  <si>
+    <t>SI4403CDY-T1-GE3</t>
+  </si>
+  <si>
+    <t>5K9</t>
+  </si>
+  <si>
+    <t>RES 5K9 OHM 1/8W 1% 0805</t>
+  </si>
+  <si>
+    <t>R19, R24, R54</t>
+  </si>
+  <si>
+    <t>71-CRCW0805-5.9K-E3</t>
+  </si>
+  <si>
+    <t>CRCW08055K90FKEA</t>
+  </si>
+  <si>
+    <t>93K1</t>
+  </si>
+  <si>
+    <t>RES 93.1K OHM 1/10W 1% 0603</t>
+  </si>
+  <si>
+    <t>R69, R74, R81</t>
+  </si>
+  <si>
+    <t>CRCW060393K1FKEA</t>
+  </si>
+  <si>
+    <t>100uH/2.2/150.2mOHM</t>
+  </si>
+  <si>
+    <t>MSS1278T-104MLD - 100uH / 2.2A / 150.2mOHM</t>
+  </si>
+  <si>
+    <t>L7, L8, L9</t>
+  </si>
+  <si>
+    <t>IND_HC9</t>
+  </si>
+  <si>
+    <t>0532610671</t>
+  </si>
+  <si>
+    <t>PicoBlade 6 Position Right Angle Connector Header Surface Mount  0.049" (1.25mm)</t>
+  </si>
+  <si>
+    <t>SBW, SW1, SW2</t>
+  </si>
+  <si>
+    <t>53398-0671</t>
+  </si>
+  <si>
+    <t>PICOBLADE 6PIN Right Angle</t>
+  </si>
+  <si>
+    <t>0532610871</t>
+  </si>
+  <si>
+    <t>PicoBlade 8 Position Right Angle Connector Header Surface Mount 0.049" (1.25mm)</t>
+  </si>
+  <si>
+    <t>P8, RTD1, RTD2</t>
+  </si>
+  <si>
+    <t>53261-0871</t>
+  </si>
+  <si>
+    <t>PICOBLADE 8PIN RIGHT ANGLE</t>
+  </si>
+  <si>
+    <t>0.47uF/50V</t>
+  </si>
+  <si>
+    <t>CAP CER 0.47UF 50V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>C39, C65</t>
+  </si>
+  <si>
+    <t>C1608X7R1H474K080AE</t>
+  </si>
+  <si>
+    <t>TDK</t>
+  </si>
+  <si>
+    <t>RES SMD 1K OHM 1% 1/8W 0805</t>
+  </si>
+  <si>
+    <t>R25, R26</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF1001V</t>
+  </si>
+  <si>
+    <t>2.2uH/9A 15mOHM</t>
+  </si>
+  <si>
+    <t>INDUCTOR 2.2UH 9A SMD</t>
+  </si>
+  <si>
+    <t>L1, L2</t>
+  </si>
+  <si>
+    <t>SRP6540-2R2M</t>
+  </si>
+  <si>
+    <t>Ind_SRP6540</t>
+  </si>
+  <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>3SMAJ5919B-TP, DNP</t>
+  </si>
+  <si>
+    <t>DIODE ZENER 5.6V 3W DO214AC</t>
+  </si>
+  <si>
+    <t>D5, D6</t>
+  </si>
+  <si>
+    <t>3SMAJ5919B-TP</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>5.6nF/100V</t>
+  </si>
+  <si>
+    <t>CAP CER 5.6nF 100V 0603</t>
+  </si>
+  <si>
+    <t>C10, C20</t>
+  </si>
+  <si>
+    <t>C1608C0G2A562J080AE</t>
+  </si>
+  <si>
+    <t>10pF/100V</t>
+  </si>
+  <si>
+    <t>CAP CER 10pF 100V 0805</t>
+  </si>
+  <si>
+    <t>C68, C70</t>
+  </si>
+  <si>
+    <t>08051A100FAT2A</t>
+  </si>
+  <si>
+    <t>11.5k</t>
+  </si>
+  <si>
+    <t>RES 11.5k OHM 1/8W 1% 0805</t>
+  </si>
+  <si>
+    <t>R6, R13</t>
+  </si>
+  <si>
+    <t>AC0805FR-0711K5L</t>
+  </si>
+  <si>
+    <t>12pF/50V</t>
+  </si>
+  <si>
+    <t>CAP CER 12pF 50V 0603</t>
+  </si>
+  <si>
+    <t>C67, C69</t>
+  </si>
+  <si>
+    <t>GQM1885C1H120GB01D</t>
+  </si>
+  <si>
+    <t>13pF/50V</t>
+  </si>
+  <si>
+    <t>CAP CER 13PF 50V 0603 NP0</t>
+  </si>
+  <si>
+    <t>C9, C19</t>
+  </si>
+  <si>
+    <t>C0603C130J5GAC7867</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0603C130J5GACTU</t>
+  </si>
+  <si>
+    <t>16uH/5A/34.5mOHM</t>
+  </si>
+  <si>
+    <t>INDUCTOR 16UH 5A SMD</t>
+  </si>
+  <si>
+    <t>L4, L5</t>
+  </si>
+  <si>
+    <t>7443251600</t>
+  </si>
+  <si>
+    <t>IND_744325xxx</t>
+  </si>
+  <si>
+    <t>19.6k</t>
+  </si>
+  <si>
+    <t>RES 19.6k OHM 1/10W 1% 0603</t>
+  </si>
+  <si>
+    <t>R5, R12</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1962V</t>
+  </si>
+  <si>
+    <t>30R@100Mhz, 10A</t>
+  </si>
+  <si>
+    <t>Ferrite Bead 30 OHM 10A 100MHz</t>
+  </si>
+  <si>
+    <t>FB3, FB4</t>
+  </si>
+  <si>
+    <t>BLE32PN300SN1L</t>
+  </si>
+  <si>
+    <t>IND1210</t>
+  </si>
+  <si>
+    <t>100K 1/10W</t>
+  </si>
+  <si>
+    <t>RES 100K OHM 1/10W 0.1% 0805</t>
+  </si>
+  <si>
+    <t>R35, R85</t>
+  </si>
+  <si>
+    <t>CPF-A-0805B100KE</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>140k</t>
+  </si>
+  <si>
+    <t>RES 140k OHM 1/5W 1% 0603</t>
+  </si>
+  <si>
+    <t>R7, R14</t>
+  </si>
+  <si>
+    <t>ERJ-P03F1403V</t>
+  </si>
+  <si>
+    <t>300K</t>
+  </si>
+  <si>
+    <t>RES 300K OHM 1/10W 0.1% 0603</t>
+  </si>
+  <si>
+    <t>R45, R70</t>
+  </si>
+  <si>
+    <t>RG1608P-304-B-T5</t>
+  </si>
+  <si>
+    <t>Susumu</t>
+  </si>
+  <si>
+    <t>1000pF/50V</t>
+  </si>
+  <si>
+    <t>CAP CER 1000pF 50V 10% X7R 0603</t>
+  </si>
+  <si>
+    <t>C37, C38</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB102</t>
+  </si>
+  <si>
+    <t>FSV530AF</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 5A DO-214AA</t>
+  </si>
+  <si>
+    <t>D1, D2</t>
+  </si>
+  <si>
+    <t>ON Semiconductor / Fairchild</t>
+  </si>
+  <si>
+    <t>Header 5X2IPS1-105-01-S-D</t>
+  </si>
+  <si>
+    <t>10 Position Receptacle Connector 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>P1, P5</t>
+  </si>
+  <si>
+    <t>IPS1-105-01-S-D</t>
+  </si>
+  <si>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>Through Hole</t>
+  </si>
+  <si>
+    <t>TPS5420QDRQ1</t>
+  </si>
+  <si>
+    <t>U4, U9</t>
+  </si>
+  <si>
+    <t>SO8 Power PAD</t>
+  </si>
+  <si>
+    <t>TPS54540QDDARQ1</t>
+  </si>
+  <si>
+    <t>U2, U14</t>
+  </si>
+  <si>
+    <t>0.01R/0.5W</t>
+  </si>
+  <si>
+    <t>Current Sense Resistors - SMD 0.01ohm .5% 4 Terminal</t>
+  </si>
+  <si>
+    <t>RSense1</t>
+  </si>
+  <si>
+    <t>LVK12R010DER</t>
+  </si>
+  <si>
+    <t>0.01uF/25V</t>
+  </si>
+  <si>
+    <t>CAP CER 0.01UF 25V 5% X7R 0603</t>
+  </si>
+  <si>
+    <t>C66</t>
+  </si>
+  <si>
+    <t>06033C103JAT4A</t>
+  </si>
+  <si>
+    <t>0.075R/0.5W</t>
+  </si>
+  <si>
+    <t>Current Sense Resistors - SMD 1/2W 0.075 OHMS 1% 4 Terminal</t>
+  </si>
+  <si>
+    <t>Rsense3</t>
+  </si>
+  <si>
+    <t>LVK12R075FER</t>
+  </si>
+  <si>
+    <t>1nF/16V</t>
+  </si>
+  <si>
+    <t>CAP CER 1nF 16V 0603 5%</t>
+  </si>
+  <si>
+    <t>C57</t>
+  </si>
+  <si>
+    <t>C0603X102J4RECAUTO</t>
+  </si>
+  <si>
+    <t>1.2M</t>
+  </si>
+  <si>
+    <t>RES 1200K OHM 1/8W 0.1% 0805</t>
+  </si>
+  <si>
+    <t>R_ESD</t>
+  </si>
+  <si>
+    <t>RG2012P-125-B-T5</t>
+  </si>
+  <si>
+    <t>1.65K</t>
+  </si>
+  <si>
+    <t>RES 1.65K OHM 1/10W 0.1% 0805</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>PCF0805R-1K65BT1</t>
+  </si>
+  <si>
+    <t>TT Welwyn</t>
+  </si>
+  <si>
+    <t>3.24k 1/8W</t>
+  </si>
+  <si>
+    <t>RES 3.24k OHM 1/8W 1% 0805 SMD</t>
+  </si>
+  <si>
+    <t>R59</t>
+  </si>
+  <si>
+    <t>CRCW08053K24FKEA</t>
+  </si>
+  <si>
+    <t>4K7</t>
+  </si>
+  <si>
+    <t>RES 4K7 OHM 1/8W 1% 0603</t>
+  </si>
+  <si>
+    <t>R64</t>
+  </si>
+  <si>
+    <t>MCT06030C4701FP500</t>
+  </si>
+  <si>
+    <t>4.02k</t>
+  </si>
+  <si>
+    <t>RES 4.02k OHM 1/8W 0.1% 0805</t>
+  </si>
+  <si>
+    <t>R36</t>
+  </si>
+  <si>
+    <t>ERA-6AEB4021V</t>
+  </si>
+  <si>
+    <t>10uH/6.4A/51.8mOHM</t>
+  </si>
+  <si>
+    <t>INDUCTOR 2.2UH 6.4A SMD</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>IHLP3232DZER100M11</t>
+  </si>
+  <si>
+    <t>Ind_IHLP</t>
+  </si>
+  <si>
+    <t>Vishay Dale</t>
+  </si>
+  <si>
+    <t>27uH/4.3A/42.5mOHM</t>
+  </si>
+  <si>
+    <t>INDUCTOR 27UH 4.3A SMD</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>7447798271</t>
+  </si>
+  <si>
+    <t>30R@100Mhz, 3A</t>
+  </si>
+  <si>
+    <t>Ferrite Bead 30 OHM 3A 100MHz</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>BLM21PG300SN1D</t>
+  </si>
+  <si>
+    <t>IND0805</t>
+  </si>
+  <si>
+    <t>32MHz 10ppm</t>
+  </si>
+  <si>
+    <t>32MHz ±10ppm Crystal 10pF 60 Ohm -40°C ~ 125°C</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>ABM8X-102-32.000MHZ-T</t>
+  </si>
+  <si>
+    <t>XTAL_ABM8X</t>
+  </si>
+  <si>
+    <t>Abracon</t>
+  </si>
+  <si>
+    <t>32.768kHz 12.5pF</t>
+  </si>
+  <si>
+    <t>32.768kHz ±20ppm Crystal 12.5pF 70 kOhm -40°C ~ 125°C</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>ECS-.327-12.5-34S-TR</t>
+  </si>
+  <si>
+    <t>ABS06 0805</t>
+  </si>
+  <si>
+    <t>ECS International</t>
+  </si>
+  <si>
     <t>47k</t>
-  </si>
-  <si>
-    <t>RES 47k OHM 1/10W 1% 0805</t>
-  </si>
-  <si>
-    <t>V1, V2, V3, V4</t>
-  </si>
-  <si>
-    <t>RC0805FR-0747KL</t>
-  </si>
-  <si>
-    <t>150R</t>
-  </si>
-  <si>
-    <t>RES 150R OHM 1/10W 1% 0603</t>
-  </si>
-  <si>
-    <t>R33, R42, R44, R92</t>
-  </si>
-  <si>
-    <t>CRCW0603150RFKEA</t>
-  </si>
-  <si>
-    <t>220uF/6.3V</t>
-  </si>
-  <si>
-    <t>CAP Tantalum 220uF 6.3V 20% 1210</t>
-  </si>
-  <si>
-    <t>C24, C31, C49, C56</t>
-  </si>
-  <si>
-    <t>6TPE220MAZB</t>
-  </si>
-  <si>
-    <t>cc1210</t>
-  </si>
-  <si>
-    <t>Panasonic</t>
-  </si>
-  <si>
-    <t>MOSFET-P-SI4403CDY-T1-GE3</t>
-  </si>
-  <si>
-    <t>MOSFET 1.8V P-Channel 20 V, 0.0155 Ω typ., 13.4 A</t>
-  </si>
-  <si>
-    <t>Q3, Q4, Q5, Q6</t>
-  </si>
-  <si>
-    <t>SI4403CDY-T1-GE3</t>
-  </si>
-  <si>
-    <t>5K9</t>
-  </si>
-  <si>
-    <t>RES 5K9 OHM 1/8W 1% 0805</t>
-  </si>
-  <si>
-    <t>R19, R24, R54</t>
-  </si>
-  <si>
-    <t>71-CRCW0805-5.9K-E3</t>
-  </si>
-  <si>
-    <t>CRCW08055K90FKEA</t>
-  </si>
-  <si>
-    <t>93K1</t>
-  </si>
-  <si>
-    <t>RES 93.1K OHM 1/10W 1% 0603</t>
-  </si>
-  <si>
-    <t>R69, R74, R81</t>
-  </si>
-  <si>
-    <t>CRCW060393K1FKEA</t>
-  </si>
-  <si>
-    <t>100uH/2.2/150.2mOHM</t>
-  </si>
-  <si>
-    <t>MSS1278T-104MLD - 100uH / 2.2A / 150.2mOHM</t>
-  </si>
-  <si>
-    <t>L7, L8, L9</t>
-  </si>
-  <si>
-    <t>IND_HC9</t>
-  </si>
-  <si>
-    <t>0532610671</t>
-  </si>
-  <si>
-    <t>PicoBlade 6 Position Right Angle Connector Header Surface Mount  0.049" (1.25mm)</t>
-  </si>
-  <si>
-    <t>SBW, SW1, SW2</t>
-  </si>
-  <si>
-    <t>53398-0671</t>
-  </si>
-  <si>
-    <t>PICOBLADE 6PIN Right Angle</t>
-  </si>
-  <si>
-    <t>0532610871</t>
-  </si>
-  <si>
-    <t>PicoBlade 8 Position Right Angle Connector Header Surface Mount 0.049" (1.25mm)</t>
-  </si>
-  <si>
-    <t>P8, RTD1, RTD2</t>
-  </si>
-  <si>
-    <t>53261-0871</t>
-  </si>
-  <si>
-    <t>PICOBLADE 8PIN RIGHT ANGLE</t>
-  </si>
-  <si>
-    <t>0.47uF/50V</t>
-  </si>
-  <si>
-    <t>CAP CER 0.47UF 50V 10% X7R 0603</t>
-  </si>
-  <si>
-    <t>C39, C65</t>
-  </si>
-  <si>
-    <t>C1608X7R1H474K080AE</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>RES SMD 1K OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>R25, R26</t>
-  </si>
-  <si>
-    <t>ERJ-6ENF1001V</t>
-  </si>
-  <si>
-    <t>2.2uH/9A 15mOHM</t>
-  </si>
-  <si>
-    <t>INDUCTOR 2.2UH 9A SMD</t>
-  </si>
-  <si>
-    <t>L1, L2</t>
-  </si>
-  <si>
-    <t>SRP6540-2R2M</t>
-  </si>
-  <si>
-    <t>Ind_SRP6540</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>3SMAJ5919B-TP</t>
-  </si>
-  <si>
-    <t>DIODE ZENER 5.6V 3W DO214AC</t>
-  </si>
-  <si>
-    <t>D5, D6</t>
-  </si>
-  <si>
-    <t>MCC</t>
-  </si>
-  <si>
-    <t>5.6nF/100V</t>
-  </si>
-  <si>
-    <t>CAP CER 5.6nF 100V 0603</t>
-  </si>
-  <si>
-    <t>C10, C20</t>
-  </si>
-  <si>
-    <t>C1608C0G2A562J080AE</t>
-  </si>
-  <si>
-    <t>10pF/100V</t>
-  </si>
-  <si>
-    <t>CAP CER 10pF 100V 0805</t>
-  </si>
-  <si>
-    <t>C68, C70</t>
-  </si>
-  <si>
-    <t>08051A100FAT2A</t>
-  </si>
-  <si>
-    <t>11.5k</t>
-  </si>
-  <si>
-    <t>RES 11.5k OHM 1/8W 1% 0805</t>
-  </si>
-  <si>
-    <t>R6, R13</t>
-  </si>
-  <si>
-    <t>AC0805FR-0711K5L</t>
-  </si>
-  <si>
-    <t>12pF/50V</t>
-  </si>
-  <si>
-    <t>CAP CER 12pF 50V 0603</t>
-  </si>
-  <si>
-    <t>C67, C69</t>
-  </si>
-  <si>
-    <t>GQM1885C1H120GB01D</t>
-  </si>
-  <si>
-    <t>13pF/50V</t>
-  </si>
-  <si>
-    <t>CAP CER 13PF 50V 0603 NP0</t>
-  </si>
-  <si>
-    <t>C9, C19</t>
-  </si>
-  <si>
-    <t>C0603C130J5GAC7867</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>C0603C130J5GACTU</t>
-  </si>
-  <si>
-    <t>16uH/5A/34.5mOHM</t>
-  </si>
-  <si>
-    <t>INDUCTOR 16UH 5A SMD</t>
-  </si>
-  <si>
-    <t>L4, L5</t>
-  </si>
-  <si>
-    <t>7443251600</t>
-  </si>
-  <si>
-    <t>IND_744325xxx</t>
-  </si>
-  <si>
-    <t>19.6k</t>
-  </si>
-  <si>
-    <t>RES 19.6k OHM 1/10W 1% 0603</t>
-  </si>
-  <si>
-    <t>R5, R12</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1962V</t>
-  </si>
-  <si>
-    <t>30R@100Mhz, 10A</t>
-  </si>
-  <si>
-    <t>Ferrite Bead 30 OHM 10A 100MHz</t>
-  </si>
-  <si>
-    <t>FB3, FB4</t>
-  </si>
-  <si>
-    <t>BLE32PN300SN1L</t>
-  </si>
-  <si>
-    <t>IND1210</t>
-  </si>
-  <si>
-    <t>100K 1/10W</t>
-  </si>
-  <si>
-    <t>RES 100K OHM 1/10W 0.1% 0805</t>
-  </si>
-  <si>
-    <t>R35, R85</t>
-  </si>
-  <si>
-    <t>CPF-A-0805B100KE</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>140k</t>
-  </si>
-  <si>
-    <t>RES 140k OHM 1/5W 1% 0603</t>
-  </si>
-  <si>
-    <t>R7, R14</t>
-  </si>
-  <si>
-    <t>ERJ-P03F1403V</t>
-  </si>
-  <si>
-    <t>300K</t>
-  </si>
-  <si>
-    <t>RES 300K OHM 1/10W 0.1% 0603</t>
-  </si>
-  <si>
-    <t>R45, R70</t>
-  </si>
-  <si>
-    <t>RG1608P-304-B-T5</t>
-  </si>
-  <si>
-    <t>Susumu</t>
-  </si>
-  <si>
-    <t>1000pF/50V</t>
-  </si>
-  <si>
-    <t>CAP CER 1000pF 50V 10% X7R 0603</t>
-  </si>
-  <si>
-    <t>C37, C38</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R9BB102</t>
-  </si>
-  <si>
-    <t>FSV530AF</t>
-  </si>
-  <si>
-    <t>DIODE SCHOTTKY 30V 5A DO-214AA</t>
-  </si>
-  <si>
-    <t>D1, D2</t>
-  </si>
-  <si>
-    <t>ON Semiconductor / Fairchild</t>
-  </si>
-  <si>
-    <t>Header 5X2IPS1-105-01-S-D</t>
-  </si>
-  <si>
-    <t>10 Position Receptacle Connector 0.100" (2.54mm)</t>
-  </si>
-  <si>
-    <t>P1, P5</t>
-  </si>
-  <si>
-    <t>IPS1-105-01-S-D</t>
-  </si>
-  <si>
-    <t>Samtec</t>
-  </si>
-  <si>
-    <t>Through Hole</t>
-  </si>
-  <si>
-    <t>TPS5420QDRQ1</t>
-  </si>
-  <si>
-    <t>U4, U9</t>
-  </si>
-  <si>
-    <t>SO8 Power PAD</t>
-  </si>
-  <si>
-    <t>TPS54540QDDARQ1</t>
-  </si>
-  <si>
-    <t>U2, U14</t>
-  </si>
-  <si>
-    <t>0.01R/0.5W</t>
-  </si>
-  <si>
-    <t>Current Sense Resistors - SMD 0.01ohm .5% 4 Terminal</t>
-  </si>
-  <si>
-    <t>RSense1</t>
-  </si>
-  <si>
-    <t>LVK12R010DER</t>
-  </si>
-  <si>
-    <t>0.01uF/25V</t>
-  </si>
-  <si>
-    <t>CAP CER 0.01UF 25V 5% X7R 0603</t>
-  </si>
-  <si>
-    <t>C66</t>
-  </si>
-  <si>
-    <t>06033C103JAT4A</t>
-  </si>
-  <si>
-    <t>0.075R/0.5W</t>
-  </si>
-  <si>
-    <t>Current Sense Resistors - SMD 1/2W 0.075 OHMS 1% 4 Terminal</t>
-  </si>
-  <si>
-    <t>Rsense3</t>
-  </si>
-  <si>
-    <t>LVK12R075FER</t>
-  </si>
-  <si>
-    <t>1nF/16V</t>
-  </si>
-  <si>
-    <t>CAP CER 1nF 16V 0603 5%</t>
-  </si>
-  <si>
-    <t>C57</t>
-  </si>
-  <si>
-    <t>C0603X102J4RECAUTO</t>
-  </si>
-  <si>
-    <t>1.2M</t>
-  </si>
-  <si>
-    <t>RES 1200K OHM 1/8W 0.1% 0805</t>
-  </si>
-  <si>
-    <t>R_ESD</t>
-  </si>
-  <si>
-    <t>RG2012P-125-B-T5</t>
-  </si>
-  <si>
-    <t>1.65K</t>
-  </si>
-  <si>
-    <t>RES 1.65K OHM 1/10W 0.1% 0805</t>
-  </si>
-  <si>
-    <t>R27</t>
-  </si>
-  <si>
-    <t>PCF0805R-1K65BT1</t>
-  </si>
-  <si>
-    <t>TT Welwyn</t>
-  </si>
-  <si>
-    <t>3.24k 1/8W</t>
-  </si>
-  <si>
-    <t>RES 3.24k OHM 1/8W 1% 0805 SMD</t>
-  </si>
-  <si>
-    <t>R59</t>
-  </si>
-  <si>
-    <t>CRCW08053K24FKEA</t>
-  </si>
-  <si>
-    <t>4K7</t>
-  </si>
-  <si>
-    <t>RES 4K7 OHM 1/8W 1% 0603</t>
-  </si>
-  <si>
-    <t>R64</t>
-  </si>
-  <si>
-    <t>MCT06030C4701FP500</t>
-  </si>
-  <si>
-    <t>4.02k</t>
-  </si>
-  <si>
-    <t>RES 4.02k OHM 1/8W 0.1% 0805</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>ERA-6AEB4021V</t>
-  </si>
-  <si>
-    <t>10uH/6.4A/51.8mOHM</t>
-  </si>
-  <si>
-    <t>INDUCTOR 2.2UH 6.4A SMD</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>IHLP3232DZER100M11</t>
-  </si>
-  <si>
-    <t>Ind_IHLP</t>
-  </si>
-  <si>
-    <t>Vishay Dale</t>
-  </si>
-  <si>
-    <t>27uH/4.3A/42.5mOHM</t>
-  </si>
-  <si>
-    <t>INDUCTOR 27UH 4.3A SMD</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>7447798271</t>
-  </si>
-  <si>
-    <t>30R@100Mhz, 3A</t>
-  </si>
-  <si>
-    <t>Ferrite Bead 30 OHM 3A 100MHz</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>BLM21PG300SN1D</t>
-  </si>
-  <si>
-    <t>IND0805</t>
-  </si>
-  <si>
-    <t>32MHz 10ppm</t>
-  </si>
-  <si>
-    <t>32MHz ±10ppm Crystal 10pF 60 Ohm -40°C ~ 125°C</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>ABM8X-102-32.000MHZ-T</t>
-  </si>
-  <si>
-    <t>XTAL_ABM8X</t>
-  </si>
-  <si>
-    <t>Abracon</t>
-  </si>
-  <si>
-    <t>32.768kHz 12.5pF</t>
-  </si>
-  <si>
-    <t>32.768kHz ±20ppm Crystal 12.5pF 70 kOhm -40°C ~ 125°C</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>ECS-.327-12.5-34S-TR</t>
-  </si>
-  <si>
-    <t>ABS06 0805</t>
-  </si>
-  <si>
-    <t>ECS International</t>
   </si>
   <si>
     <t>RES 47K OHM 1/8W 0.5% 0603</t>
@@ -1510,12 +1516,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <cols>
-    <col min="1" max="1" width="21.515625" customWidth="1"/>
-    <col min="2" max="2" width="14.52734375" customWidth="1"/>
-    <col min="3" max="3" width="15.9921875" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="5" width="41.50390625" customWidth="1"/>
-    <col min="6" max="10" width="16.8046875" customWidth="1"/>
+    <col min="1" max="1" width="21.671875" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" customWidth="1"/>
+    <col min="3" max="3" width="16.1484375" customWidth="1"/>
+    <col min="4" max="4" width="17.93359375" customWidth="1"/>
+    <col min="5" max="5" width="41.66015625" customWidth="1"/>
+    <col min="6" max="10" width="16.9609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2643,16 +2649,16 @@
         <v>5</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>104</v>
       </c>
       <c r="H37" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="I37" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>184</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>17</v>
@@ -2660,22 +2666,22 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C38" s="17">
         <v>2</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>15</v>
@@ -2684,28 +2690,28 @@
         <v>174</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="J38" s="16"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C39" s="17">
         <v>2</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>21</v>
@@ -2714,7 +2720,7 @@
         <v>64</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>17</v>
@@ -2722,22 +2728,22 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C40" s="17">
         <v>2</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>37</v>
@@ -2746,28 +2752,28 @@
         <v>16</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J40" s="16"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C41" s="17">
         <v>2</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>15</v>
@@ -2776,7 +2782,7 @@
         <v>47</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J41" s="16" t="s">
         <v>17</v>
@@ -2784,31 +2790,31 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C42" s="17">
         <v>2</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J42" s="16" t="s">
         <v>17</v>
@@ -2816,31 +2822,31 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C43" s="17">
         <v>2</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H43" s="16" t="s">
         <v>58</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>17</v>
@@ -2848,22 +2854,22 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C44" s="17">
         <v>2</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>99</v>
@@ -2872,7 +2878,7 @@
         <v>142</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J44" s="16" t="s">
         <v>17</v>
@@ -2880,31 +2886,31 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C45" s="17">
         <v>2</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>17</v>
@@ -2912,52 +2918,52 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C46" s="17">
         <v>2</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H46" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="I46" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>227</v>
       </c>
       <c r="J46" s="16"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C47" s="17">
         <v>2</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>99</v>
@@ -2966,7 +2972,7 @@
         <v>142</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>17</v>
@@ -2974,52 +2980,52 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C48" s="17">
         <v>2</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>99</v>
       </c>
       <c r="H48" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I48" s="16" t="s">
         <v>237</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>236</v>
       </c>
       <c r="J48" s="16"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C49" s="17">
         <v>2</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>15</v>
@@ -3028,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>17</v>
@@ -3036,31 +3042,31 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C50" s="17">
         <v>2</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>104</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J50" s="16" t="s">
         <v>17</v>
@@ -3068,63 +3074,63 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="28" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C51" s="17">
         <v>2</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H51" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="I51" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="I51" s="16" t="s">
-        <v>249</v>
-      </c>
       <c r="J51" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C52" s="17">
         <v>2</v>
       </c>
       <c r="D52" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E52" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>252</v>
-      </c>
       <c r="G52" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H52" s="16" t="s">
         <v>115</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J52" s="16" t="s">
         <v>17</v>
@@ -3132,31 +3138,31 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="28" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C53" s="17">
         <v>2</v>
       </c>
       <c r="D53" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E53" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="16" t="s">
+      <c r="G53" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>254</v>
       </c>
       <c r="H53" s="16" t="s">
         <v>115</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J53" s="16" t="s">
         <v>17</v>
@@ -3164,22 +3170,22 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C54" s="17">
         <v>1</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G54" s="16" t="s">
         <v>83</v>
@@ -3188,7 +3194,7 @@
         <v>84</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J54" s="16" t="s">
         <v>17</v>
@@ -3196,22 +3202,22 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C55" s="17">
         <v>1</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>15</v>
@@ -3220,7 +3226,7 @@
         <v>64</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J55" s="16" t="s">
         <v>17</v>
@@ -3228,22 +3234,22 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C56" s="17">
         <v>1</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>83</v>
@@ -3252,37 +3258,37 @@
         <v>84</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J56" s="16"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C57" s="17">
         <v>1</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>17</v>
@@ -3290,82 +3296,82 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C58" s="17">
         <v>1</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J58" s="16"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C59" s="17">
         <v>1</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H59" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="I59" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>280</v>
       </c>
       <c r="J59" s="16"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C60" s="17">
         <v>1</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>37</v>
@@ -3374,28 +3380,28 @@
         <v>33</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J60" s="16"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C61" s="17">
         <v>1</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>99</v>
@@ -3404,7 +3410,7 @@
         <v>121</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>17</v>
@@ -3412,22 +3418,22 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="28" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C62" s="17">
         <v>1</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>37</v>
@@ -3436,7 +3442,7 @@
         <v>142</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>17</v>
@@ -3444,31 +3450,31 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C63" s="17">
         <v>1</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G63" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="I63" s="16" t="s">
         <v>298</v>
-      </c>
-      <c r="H63" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>297</v>
       </c>
       <c r="J63" s="16" t="s">
         <v>17</v>
@@ -3476,31 +3482,31 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C64" s="17">
         <v>1</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H64" s="16" t="s">
         <v>58</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J64" s="16" t="s">
         <v>17</v>
@@ -3508,61 +3514,61 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C65" s="17">
         <v>1</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H65" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J65" s="16"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C66" s="17">
         <v>1</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G66" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="I66" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="H66" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>312</v>
       </c>
       <c r="J66" s="16" t="s">
         <v>17</v>
@@ -3570,31 +3576,31 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C67" s="17">
         <v>1</v>
       </c>
       <c r="D67" s="16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G67" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="I67" s="16" t="s">
         <v>319</v>
-      </c>
-      <c r="H67" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="I67" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="J67" s="16" t="s">
         <v>17</v>
@@ -3602,22 +3608,22 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="28" t="s">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C68" s="17">
         <v>1</v>
       </c>
       <c r="D68" s="16" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>99</v>
@@ -3626,28 +3632,28 @@
         <v>33</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J68" s="16"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="28" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C69" s="17">
         <v>1</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E69" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G69" s="16" t="s">
         <v>37</v>
@@ -3656,7 +3662,7 @@
         <v>142</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="J69" s="16" t="s">
         <v>17</v>
@@ -3664,22 +3670,22 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C70" s="17">
         <v>1</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E70" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>37</v>
@@ -3688,7 +3694,7 @@
         <v>142</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J70" s="16" t="s">
         <v>17</v>
@@ -3696,22 +3702,22 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="28" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C71" s="17">
         <v>1</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G71" s="16" t="s">
         <v>99</v>
@@ -3720,31 +3726,31 @@
         <v>121</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="J71" s="16"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="28" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C72" s="17">
         <v>1</v>
       </c>
       <c r="D72" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="E72" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>336</v>
-      </c>
       <c r="G72" s="16" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
@@ -3752,25 +3758,25 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="28" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C73" s="17">
         <v>1</v>
       </c>
       <c r="D73" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="E73" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>340</v>
-      </c>
       <c r="G73" s="16" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
@@ -3778,31 +3784,31 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="28" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C74" s="17">
         <v>1</v>
       </c>
       <c r="D74" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="E74" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>344</v>
-      </c>
       <c r="G74" s="16" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H74" s="16" t="s">
         <v>70</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J74" s="16" t="s">
         <v>17</v>
@@ -3810,61 +3816,61 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="28" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C75" s="17">
         <v>1</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E75" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H75" s="16" t="s">
         <v>115</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J75" s="16"/>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="28" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C76" s="17">
         <v>1</v>
       </c>
       <c r="D76" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="E76" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>353</v>
-      </c>
       <c r="G76" s="16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H76" s="16" t="s">
         <v>105</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J76" s="16" t="s">
         <v>17</v>
@@ -3872,31 +3878,31 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="28" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C77" s="17">
         <v>1</v>
       </c>
       <c r="D77" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>357</v>
-      </c>
       <c r="G77" s="16" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J77" s="16" t="s">
         <v>17</v>
@@ -3907,28 +3913,28 @@
         <v>53</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C78" s="17">
         <v>1</v>
       </c>
       <c r="D78" s="16" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E78" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>94</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J78" s="16"/>
     </row>
@@ -3937,60 +3943,60 @@
         <v>53</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C79" s="17">
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E79" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G79" s="16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H79" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="I79" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="I79" s="16" t="s">
-        <v>368</v>
-      </c>
       <c r="J79" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="28" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C80" s="17">
         <v>1</v>
       </c>
       <c r="D80" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="E80" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>371</v>
-      </c>
       <c r="G80" s="16" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H80" s="16" t="s">
         <v>74</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="J80" s="16" t="s">
         <v>17</v>
@@ -3998,31 +4004,31 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="28" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C81" s="17">
         <v>1</v>
       </c>
       <c r="D81" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="E81" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>376</v>
-      </c>
       <c r="G81" s="16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J81" s="16" t="s">
         <v>17</v>
@@ -4030,31 +4036,31 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="28" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C82" s="17">
         <v>1</v>
       </c>
       <c r="D82" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>380</v>
-      </c>
       <c r="G82" s="16" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H82" s="16" t="s">
         <v>115</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J82" s="16" t="s">
         <v>17</v>
@@ -4062,63 +4068,63 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="28" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C83" s="17">
         <v>1</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E83" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="28" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C84" s="17">
         <v>1</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E84" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>57</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J84" s="16" t="s">
         <v>17</v>
@@ -4126,61 +4132,61 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="28" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C85" s="17">
         <v>1</v>
       </c>
       <c r="D85" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="E85" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>392</v>
-      </c>
       <c r="G85" s="16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H85" s="16" t="s">
         <v>115</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J85" s="16"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="28" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C86" s="17">
         <v>1</v>
       </c>
       <c r="D86" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="E86" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>396</v>
-      </c>
       <c r="G86" s="16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H86" s="16" t="s">
         <v>115</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J86" s="16" t="s">
         <v>17</v>
@@ -4188,31 +4194,31 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="28" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C87" s="17">
         <v>1</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E87" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G87" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H87" s="16" t="s">
         <v>115</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J87" s="16" t="s">
         <v>17</v>
@@ -4220,31 +4226,31 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="28" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C88" s="17">
         <v>1</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E88" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G88" s="16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H88" s="16" t="s">
         <v>115</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J88" s="16" t="s">
         <v>17</v>
